--- a/部品表.xlsx
+++ b/部品表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgs_1\Desktop\github-workspace\RumiCar-for-Node-RED-MCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B9B7F-84B3-4D0A-991F-BE92D33D81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F3CE6-FDDB-4EBD-9CE2-581B8BDC73DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -140,13 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Amazonで買うと、最小注文個数が３でした。</t>
-  </si>
-  <si>
-    <t>https://www.tamiya.com/japan/products/70167/index.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://amzn.to/3TS7kQW</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -162,11 +155,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://amzn.to/3HkO4UO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TAMIYA スリムタイヤセット</t>
+    <t>https://amzn.to/48QgeTh</t>
+  </si>
+  <si>
+    <t>eSUN PLA  3Dプリンターフィラメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://amzn.to/3T9DhC4</t>
+  </si>
+  <si>
+    <t>TAMIYA トラックタイヤ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -174,17 +173,47 @@
     <rPh sb="4" eb="5">
       <t>ケイ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://amzn.to/48QgeTh</t>
-  </si>
-  <si>
-    <t>eSUN PLA  3Dプリンターフィラメント</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36mm径</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前使用していたもの</t>
+    <rPh sb="0" eb="4">
+      <t>イゼンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAMIYA スリムタイヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://amzn.to/3v9O7jK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【注意！】Amazonで買うと、最小注文個数が３でした</t>
+    <rPh sb="1" eb="3">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g102667/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電池ボックス 単3×3本 リード線</t>
   </si>
 </sst>
 </file>
@@ -192,7 +221,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -259,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -275,9 +304,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -559,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -571,7 +599,8 @@
     <col min="2" max="2" width="40.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="9" width="9" style="3"/>
+    <col min="8" max="8" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -644,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G9" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G10" si="0">E3*F3</f>
         <v>300</v>
       </c>
     </row>
@@ -677,23 +706,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -701,29 +730,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="10">
-        <v>726</v>
+        <v>580</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>726</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -731,23 +754,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10">
-        <v>1223</v>
+        <v>726</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>1223</v>
+        <v>726</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -755,26 +782,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="10">
-        <v>371</v>
+        <v>1223</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>742</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -782,48 +806,103 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10">
-        <v>2699</v>
+        <v>396</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="0"/>
+        <v>792</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10">
         <v>2699</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5"/>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>7760</v>
+        <f t="shared" si="0"/>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="10">
+        <f>SUM(G2:G10)</f>
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10">
+        <v>371</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{748B1CD2-F2A7-4EA9-9306-C4E64A507B5D}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{AC879858-80DF-46E6-A35E-06622FD66593}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{AC879858-80DF-46E6-A35E-06622FD66593}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{AC9D7054-11A0-4EB4-9DB2-D4BF8C92ABED}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{12A09139-E60A-49E3-BF4E-E71E331EC2B3}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{3E6137C5-D444-461F-8D59-DF9C7CA52DA0}"/>
-    <hyperlink ref="H6" r:id="rId6" xr:uid="{3CDD16E1-4069-42BA-87D0-E5383302B838}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{4E8DD881-6D3A-4811-9F53-ED59145B557E}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{4DE08C23-78D8-435B-9CE5-95158A8A0EC2}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{3E6137C5-D444-461F-8D59-DF9C7CA52DA0}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{4E8DD881-6D3A-4811-9F53-ED59145B557E}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{A61790F7-7CD1-4B89-AAE7-59BB7EF95497}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{878C40F3-330B-45C7-9348-D3C7D7084164}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
